--- a/FYP_1/proposal/bom.xlsx
+++ b/FYP_1/proposal/bom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\final_year_project\FYP_1\proposal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF02659-49C8-407D-853A-05831298449E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C85471F-BEDF-40DB-9248-DFC8A648F892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3D3C26F4-ACA7-4F79-A4EB-15B18D231DA0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Part Name</t>
   </si>
@@ -69,13 +69,31 @@
   </si>
   <si>
     <t>Unit Cost (RM)</t>
+  </si>
+  <si>
+    <t>LM7805 Voltage Regulator</t>
+  </si>
+  <si>
+    <t>LM7812 Voltage Regulator</t>
+  </si>
+  <si>
+    <t>10uF 50V Capacitor</t>
+  </si>
+  <si>
+    <t>100uF 25V Capacitor</t>
+  </si>
+  <si>
+    <t>100nF Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>Breadboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +103,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -176,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -194,6 +218,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1EAC602-C43B-4D05-BB9D-815B82BD88C6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,9 +674,213 @@
         <v>46.600000000000009</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D12">
+        <f>B12*C12</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D23" si="1">B13*C13</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3.59</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="8">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="8">
+        <v>4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="8">
+        <v>3</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24">
+        <f>SUM(D12:D23)</f>
+        <v>53.480000000000004</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
